--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="H2">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="I2">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="J2">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="N2">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="O2">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="P2">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="Q2">
-        <v>801.576648512641</v>
+        <v>922.8142870460224</v>
       </c>
       <c r="R2">
-        <v>3206.306594050564</v>
+        <v>3691.25714818409</v>
       </c>
       <c r="S2">
-        <v>0.17877534945575</v>
+        <v>0.3290378748412662</v>
       </c>
       <c r="T2">
-        <v>0.132939268000274</v>
+        <v>0.3222924483167484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="H3">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="I3">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="J3">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.958702</v>
       </c>
       <c r="O3">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="P3">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="Q3">
-        <v>27.922384232186</v>
+        <v>29.959676899889</v>
       </c>
       <c r="R3">
-        <v>167.534305393116</v>
+        <v>179.758061399334</v>
       </c>
       <c r="S3">
-        <v>0.006227519237254893</v>
+        <v>0.01068239683373999</v>
       </c>
       <c r="T3">
-        <v>0.006946275183172321</v>
+        <v>0.01569510423882677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="H4">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="I4">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="J4">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="N4">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="O4">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="P4">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="Q4">
-        <v>0.145156285383</v>
+        <v>1.705129449510667</v>
       </c>
       <c r="R4">
-        <v>0.870937712298</v>
+        <v>10.230776697064</v>
       </c>
       <c r="S4">
-        <v>3.237415372964818E-05</v>
+        <v>0.0006079795016960625</v>
       </c>
       <c r="T4">
-        <v>3.611065210094612E-05</v>
+        <v>0.0008932734668731485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="H5">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="I5">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="J5">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="N5">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="O5">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="P5">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="Q5">
-        <v>488.8881386780064</v>
+        <v>652.449873069885</v>
       </c>
       <c r="R5">
-        <v>1955.552554712026</v>
+        <v>2609.79949227954</v>
       </c>
       <c r="S5">
-        <v>0.109036544414197</v>
+        <v>0.2326369700696478</v>
       </c>
       <c r="T5">
-        <v>0.08108074431867097</v>
+        <v>0.2278678060661169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="H6">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="I6">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="J6">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N6">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="O6">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="P6">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="Q6">
-        <v>575.6342133702457</v>
+        <v>1.755344049611167</v>
       </c>
       <c r="R6">
-        <v>3453.805280221474</v>
+        <v>10.532064297667</v>
       </c>
       <c r="S6">
-        <v>0.1283834900192062</v>
+        <v>0.0006258839766646524</v>
       </c>
       <c r="T6">
-        <v>0.1432010109763331</v>
+        <v>0.0009195796044700887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="H7">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="I7">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="J7">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="N7">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="O7">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="P7">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="Q7">
-        <v>1.627871918489333</v>
+        <v>0.07607628363683333</v>
       </c>
       <c r="R7">
-        <v>9.767231510936</v>
+        <v>0.456457701821</v>
       </c>
       <c r="S7">
-        <v>0.0003630636840995042</v>
+        <v>2.712569478504037E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004049670764057212</v>
+        <v>3.985440850288592E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.958702</v>
       </c>
       <c r="I8">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="J8">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="N8">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="O8">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="P8">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="Q8">
-        <v>27.922384232186</v>
+        <v>29.959676899889</v>
       </c>
       <c r="R8">
-        <v>167.534305393116</v>
+        <v>179.758061399334</v>
       </c>
       <c r="S8">
-        <v>0.006227519237254893</v>
+        <v>0.01068239683373999</v>
       </c>
       <c r="T8">
-        <v>0.006946275183172321</v>
+        <v>0.01569510423882677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.958702</v>
       </c>
       <c r="I9">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="J9">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>2.958702</v>
       </c>
       <c r="O9">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="P9">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="Q9">
         <v>0.9726575027559999</v>
@@ -1010,10 +1010,10 @@
         <v>8.753917524803999</v>
       </c>
       <c r="S9">
-        <v>0.0002169314503842096</v>
+        <v>0.0003468099293084376</v>
       </c>
       <c r="T9">
-        <v>0.0003629532465926938</v>
+        <v>0.0007643253770114381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>2.958702</v>
       </c>
       <c r="I10">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="J10">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="N10">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="O10">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="P10">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="Q10">
-        <v>0.005056421718</v>
+        <v>0.05535797190933332</v>
       </c>
       <c r="R10">
-        <v>0.045507795462</v>
+        <v>0.4982217471839999</v>
       </c>
       <c r="S10">
-        <v>1.127731903503472E-06</v>
+        <v>1.973839123240746E-05</v>
       </c>
       <c r="T10">
-        <v>1.886835472393713E-06</v>
+        <v>4.350092671911875E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.958702</v>
       </c>
       <c r="I11">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="J11">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="N11">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="O11">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="P11">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="Q11">
-        <v>17.030089985849</v>
+        <v>21.18214646754</v>
       </c>
       <c r="R11">
-        <v>102.180539915094</v>
+        <v>127.09287880524</v>
       </c>
       <c r="S11">
-        <v>0.00379821479846292</v>
+        <v>0.007552688071796403</v>
       </c>
       <c r="T11">
-        <v>0.004236589914823086</v>
+        <v>0.01109678178176108</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,40 +1166,40 @@
         <v>2.958702</v>
       </c>
       <c r="I12">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="J12">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N12">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="O12">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="P12">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="Q12">
-        <v>20.05183124126733</v>
+        <v>0.05698821671133333</v>
       </c>
       <c r="R12">
-        <v>180.466481171406</v>
+        <v>0.5128939504019999</v>
       </c>
       <c r="S12">
-        <v>0.004472152655690494</v>
+        <v>2.031966992807893E-05</v>
       </c>
       <c r="T12">
-        <v>0.00748246657073544</v>
+        <v>4.478199170795498E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,40 +1228,40 @@
         <v>2.958702</v>
       </c>
       <c r="I13">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="J13">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="N13">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="O13">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="P13">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="Q13">
-        <v>0.05670582504266667</v>
+        <v>0.002469858680666666</v>
       </c>
       <c r="R13">
-        <v>0.5103524253839999</v>
+        <v>0.022228728126</v>
       </c>
       <c r="S13">
-        <v>1.264707961115148E-05</v>
+        <v>8.806507038878169E-07</v>
       </c>
       <c r="T13">
-        <v>2.116013421130852E-05</v>
+        <v>1.940843166188057E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="H14">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="I14">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="J14">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="N14">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="O14">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="P14">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="Q14">
-        <v>0.145156285383</v>
+        <v>1.705129449510667</v>
       </c>
       <c r="R14">
-        <v>0.870937712298</v>
+        <v>10.230776697064</v>
       </c>
       <c r="S14">
-        <v>3.237415372964818E-05</v>
+        <v>0.0006079795016960625</v>
       </c>
       <c r="T14">
-        <v>3.611065210094612E-05</v>
+        <v>0.0008932734668731485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="H15">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="I15">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="J15">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.958702</v>
       </c>
       <c r="O15">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="P15">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="Q15">
-        <v>0.005056421718</v>
+        <v>0.05535797190933332</v>
       </c>
       <c r="R15">
-        <v>0.045507795462</v>
+        <v>0.4982217471839999</v>
       </c>
       <c r="S15">
-        <v>1.127731903503472E-06</v>
+        <v>1.973839123240746E-05</v>
       </c>
       <c r="T15">
-        <v>1.886835472393713E-06</v>
+        <v>4.350092671911875E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="H16">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="I16">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="J16">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="N16">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="O16">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="P16">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="Q16">
-        <v>2.628612900000001E-05</v>
+        <v>0.003150651740444444</v>
       </c>
       <c r="R16">
-        <v>0.000236575161</v>
+        <v>0.02835586566399999</v>
       </c>
       <c r="S16">
-        <v>5.86258582573943E-09</v>
+        <v>1.123393696427541E-06</v>
       </c>
       <c r="T16">
-        <v>9.808833874073056E-09</v>
+        <v>2.475818129735893E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="H17">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="I17">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="J17">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="N17">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="O17">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="P17">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="Q17">
-        <v>0.0885320029095</v>
+        <v>1.20556379384</v>
       </c>
       <c r="R17">
-        <v>0.531192017457</v>
+        <v>7.233382763039999</v>
       </c>
       <c r="S17">
-        <v>1.97452605281499E-05</v>
+        <v>0.0004298547977410161</v>
       </c>
       <c r="T17">
-        <v>2.202418137409374E-05</v>
+        <v>0.000631563867464284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="H18">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="I18">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="J18">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N18">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="O18">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="P18">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="Q18">
-        <v>0.104240716477</v>
+        <v>0.003243435732444444</v>
       </c>
       <c r="R18">
-        <v>0.9381664482930001</v>
+        <v>0.029190921592</v>
       </c>
       <c r="S18">
-        <v>2.324876922284688E-05</v>
+        <v>1.156476677451486E-06</v>
       </c>
       <c r="T18">
-        <v>3.889807703664709E-05</v>
+        <v>2.548728850585817E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.05613066666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.168392</v>
+      </c>
+      <c r="I19">
+        <v>0.001059902682526816</v>
+      </c>
+      <c r="J19">
+        <v>0.001573473269469772</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.005127</v>
-      </c>
-      <c r="H19">
-        <v>0.015381</v>
-      </c>
-      <c r="I19">
-        <v>7.656752461546233E-05</v>
-      </c>
-      <c r="J19">
-        <v>9.903955711771462E-05</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M19">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="N19">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="O19">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="P19">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="Q19">
-        <v>0.000294788828</v>
+        <v>0.0001405698995555555</v>
       </c>
       <c r="R19">
-        <v>0.002653099452</v>
+        <v>0.001265129096</v>
       </c>
       <c r="S19">
-        <v>6.574664548816369E-08</v>
+        <v>5.01214834508772E-08</v>
       </c>
       <c r="T19">
-        <v>1.100022997598732E-07</v>
+        <v>1.104614328988655E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="H20">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="I20">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="J20">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="N20">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="O20">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="P20">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="Q20">
-        <v>488.8881386780064</v>
+        <v>652.449873069885</v>
       </c>
       <c r="R20">
-        <v>1955.552554712026</v>
+        <v>2609.79949227954</v>
       </c>
       <c r="S20">
-        <v>0.109036544414197</v>
+        <v>0.2326369700696478</v>
       </c>
       <c r="T20">
-        <v>0.08108074431867097</v>
+        <v>0.2278678060661169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="H21">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="I21">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="J21">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>2.958702</v>
       </c>
       <c r="O21">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="P21">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="Q21">
-        <v>17.030089985849</v>
+        <v>21.18214646754</v>
       </c>
       <c r="R21">
-        <v>102.180539915094</v>
+        <v>127.09287880524</v>
       </c>
       <c r="S21">
-        <v>0.00379821479846292</v>
+        <v>0.007552688071796403</v>
       </c>
       <c r="T21">
-        <v>0.004236589914823086</v>
+        <v>0.01109678178176108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="H22">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="I22">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="J22">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="N22">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="O22">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="P22">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="Q22">
-        <v>0.0885320029095</v>
+        <v>1.20556379384</v>
       </c>
       <c r="R22">
-        <v>0.531192017457</v>
+        <v>7.233382763039999</v>
       </c>
       <c r="S22">
-        <v>1.97452605281499E-05</v>
+        <v>0.0004298547977410161</v>
       </c>
       <c r="T22">
-        <v>2.202418137409374E-05</v>
+        <v>0.000631563867464284</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="H23">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="I23">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="J23">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="N23">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="O23">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="P23">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="Q23">
-        <v>298.1768650366022</v>
+        <v>461.2963223960999</v>
       </c>
       <c r="R23">
-        <v>1192.707460146409</v>
+        <v>1845.1852895844</v>
       </c>
       <c r="S23">
-        <v>0.06650227816073651</v>
+        <v>0.1644794231341745</v>
       </c>
       <c r="T23">
-        <v>0.04945180756716778</v>
+        <v>0.1611075199328124</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="H24">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="I24">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="J24">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N24">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="O24">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="P24">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="Q24">
-        <v>351.0840038268901</v>
+        <v>1.24106661377</v>
       </c>
       <c r="R24">
-        <v>2106.504022961341</v>
+        <v>7.446399682619999</v>
       </c>
       <c r="S24">
-        <v>0.07830213815352474</v>
+        <v>0.0004425136529241466</v>
       </c>
       <c r="T24">
-        <v>0.08733946509411598</v>
+        <v>0.0006501628817806137</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="H25">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="I25">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="J25">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="N25">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="O25">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="P25">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="Q25">
-        <v>0.9928523662873333</v>
+        <v>0.05378759550999999</v>
       </c>
       <c r="R25">
-        <v>5.957114197724</v>
+        <v>0.3227255730599999</v>
       </c>
       <c r="S25">
-        <v>0.0002214355034797239</v>
+        <v>1.917845916331093E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002469927243729392</v>
+        <v>2.817793800334437E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="H26">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="I26">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="J26">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="N26">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="O26">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="P26">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="Q26">
-        <v>575.6342133702457</v>
+        <v>1.755344049611167</v>
       </c>
       <c r="R26">
-        <v>3453.805280221474</v>
+        <v>10.532064297667</v>
       </c>
       <c r="S26">
-        <v>0.1283834900192062</v>
+        <v>0.0006258839766646524</v>
       </c>
       <c r="T26">
-        <v>0.1432010109763331</v>
+        <v>0.0009195796044700887</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,22 +2084,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="H27">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="I27">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="J27">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>2.958702</v>
       </c>
       <c r="O27">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="P27">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="Q27">
-        <v>20.05183124126733</v>
+        <v>0.05698821671133333</v>
       </c>
       <c r="R27">
-        <v>180.466481171406</v>
+        <v>0.5128939504019999</v>
       </c>
       <c r="S27">
-        <v>0.004472152655690494</v>
+        <v>2.031966992807893E-05</v>
       </c>
       <c r="T27">
-        <v>0.00748246657073544</v>
+        <v>4.478199170795498E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,52 +2146,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="H28">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="I28">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="J28">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="N28">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="O28">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="P28">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="Q28">
-        <v>0.104240716477</v>
+        <v>0.003243435732444444</v>
       </c>
       <c r="R28">
-        <v>0.9381664482930001</v>
+        <v>0.029190921592</v>
       </c>
       <c r="S28">
-        <v>2.324876922284688E-05</v>
+        <v>1.156476677451486E-06</v>
       </c>
       <c r="T28">
-        <v>3.889807703664709E-05</v>
+        <v>2.548728850585817E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,22 +2208,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="H29">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="I29">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="J29">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="N29">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="O29">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="P29">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="Q29">
-        <v>351.0840038268901</v>
+        <v>1.24106661377</v>
       </c>
       <c r="R29">
-        <v>2106.504022961341</v>
+        <v>7.446399682619999</v>
       </c>
       <c r="S29">
-        <v>0.07830213815352474</v>
+        <v>0.0004425136529241466</v>
       </c>
       <c r="T29">
-        <v>0.08733946509411598</v>
+        <v>0.0006501628817806137</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,52 +2270,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="H30">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="I30">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="J30">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N30">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="O30">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="P30">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="Q30">
-        <v>413.3787432770454</v>
+        <v>0.003338952133444445</v>
       </c>
       <c r="R30">
-        <v>3720.408689493409</v>
+        <v>0.030050569201</v>
       </c>
       <c r="S30">
-        <v>0.0921957113197605</v>
+        <v>1.190533923897172E-06</v>
       </c>
       <c r="T30">
-        <v>0.1542548703111681</v>
+        <v>2.623786729642156E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,52 +2332,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="H31">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="I31">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="J31">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="N31">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="O31">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="P31">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="Q31">
-        <v>1.169019547919556</v>
+        <v>0.0001447095625555556</v>
       </c>
       <c r="R31">
-        <v>10.521175931276</v>
+        <v>0.001302386063</v>
       </c>
       <c r="S31">
-        <v>0.000260726006162623</v>
+        <v>5.159751815818456E-08</v>
       </c>
       <c r="T31">
-        <v>0.0004362269751124979</v>
+        <v>1.137144273745263E-07</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2394,22 +2394,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="H32">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="I32">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="J32">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>28.312129</v>
+        <v>30.3778585</v>
       </c>
       <c r="N32">
-        <v>56.624258</v>
+        <v>60.755717</v>
       </c>
       <c r="O32">
-        <v>0.4228183409642373</v>
+        <v>0.5736182309177997</v>
       </c>
       <c r="P32">
-        <v>0.3646083762069572</v>
+        <v>0.5677080661015381</v>
       </c>
       <c r="Q32">
-        <v>1.627871918489333</v>
+        <v>0.07607628363683333</v>
       </c>
       <c r="R32">
-        <v>9.767231510936</v>
+        <v>0.456457701821</v>
       </c>
       <c r="S32">
-        <v>0.0003630636840995042</v>
+        <v>2.712569478504037E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004049670764057212</v>
+        <v>3.985440850288592E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2456,22 +2456,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="H33">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="I33">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="J33">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>2.958702</v>
       </c>
       <c r="O33">
-        <v>0.01472859295330717</v>
+        <v>0.0186228335467092</v>
       </c>
       <c r="P33">
-        <v>0.01905133188500725</v>
+        <v>0.02764643515919255</v>
       </c>
       <c r="Q33">
-        <v>0.05670582504266667</v>
+        <v>0.002469858680666666</v>
       </c>
       <c r="R33">
-        <v>0.5103524253839999</v>
+        <v>0.022228728126</v>
       </c>
       <c r="S33">
-        <v>1.264707961115148E-05</v>
+        <v>8.806507038878169E-07</v>
       </c>
       <c r="T33">
-        <v>2.116013421130852E-05</v>
+        <v>1.940843166188057E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2518,52 +2518,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.002504333333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.007513</v>
+      </c>
+      <c r="I34">
+        <v>4.728875988065924E-05</v>
+      </c>
+      <c r="J34">
+        <v>7.020229389475982E-05</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G34">
-        <v>0.05749733333333334</v>
-      </c>
-      <c r="H34">
-        <v>0.172492</v>
-      </c>
-      <c r="I34">
-        <v>0.0008586753433437571</v>
-      </c>
-      <c r="J34">
-        <v>0.001110690545890958</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M34">
-        <v>0.005127</v>
+        <v>0.05613066666666666</v>
       </c>
       <c r="N34">
-        <v>0.015381</v>
+        <v>0.168392</v>
       </c>
       <c r="O34">
-        <v>7.656752461546233E-05</v>
+        <v>0.001059902682526816</v>
       </c>
       <c r="P34">
-        <v>9.903955711771462E-05</v>
+        <v>0.001573473269469772</v>
       </c>
       <c r="Q34">
-        <v>0.000294788828</v>
+        <v>0.0001405698995555555</v>
       </c>
       <c r="R34">
-        <v>0.002653099452</v>
+        <v>0.001265129096</v>
       </c>
       <c r="S34">
-        <v>6.574664548816369E-08</v>
+        <v>5.01214834508772E-08</v>
       </c>
       <c r="T34">
-        <v>1.100022997598732E-07</v>
+        <v>1.104614328988655E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2580,22 +2580,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="H35">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="I35">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="J35">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>17.2677985</v>
+        <v>21.47781</v>
       </c>
       <c r="N35">
-        <v>34.535597</v>
+        <v>42.95562</v>
       </c>
       <c r="O35">
-        <v>0.257880356290929</v>
+        <v>0.4055606281854472</v>
       </c>
       <c r="P35">
-        <v>0.2223776238005249</v>
+        <v>0.4013820124679386</v>
       </c>
       <c r="Q35">
-        <v>0.9928523662873333</v>
+        <v>0.05378759550999999</v>
       </c>
       <c r="R35">
-        <v>5.957114197724</v>
+        <v>0.3227255730599999</v>
       </c>
       <c r="S35">
-        <v>0.0002214355034797239</v>
+        <v>1.917845916331093E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002469927243729392</v>
+        <v>2.817793800334437E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2642,52 +2642,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.002504333333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.007513</v>
+      </c>
+      <c r="I36">
+        <v>4.728875988065924E-05</v>
+      </c>
+      <c r="J36">
+        <v>7.020229389475982E-05</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G36">
-        <v>0.05749733333333334</v>
-      </c>
-      <c r="H36">
-        <v>0.172492</v>
-      </c>
-      <c r="I36">
-        <v>0.0008586753433437571</v>
-      </c>
-      <c r="J36">
-        <v>0.001110690545890958</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
-        <v>20.33171766666667</v>
+        <v>0.05778366666666667</v>
       </c>
       <c r="N36">
-        <v>60.995153</v>
+        <v>0.173351</v>
       </c>
       <c r="O36">
-        <v>0.3036374669235674</v>
+        <v>0.001091115907636385</v>
       </c>
       <c r="P36">
-        <v>0.3927529380045018</v>
+        <v>0.00161981070796626</v>
       </c>
       <c r="Q36">
-        <v>1.169019547919556</v>
+        <v>0.0001447095625555556</v>
       </c>
       <c r="R36">
-        <v>10.521175931276</v>
+        <v>0.001302386063</v>
       </c>
       <c r="S36">
-        <v>0.000260726006162623</v>
+        <v>5.159751815818456E-08</v>
       </c>
       <c r="T36">
-        <v>0.0004362269751124979</v>
+        <v>1.137144273745263E-07</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2704,52 +2704,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="H37">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="I37">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="J37">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.05749733333333334</v>
+        <v>0.002504333333333333</v>
       </c>
       <c r="N37">
-        <v>0.172492</v>
+        <v>0.007513</v>
       </c>
       <c r="O37">
-        <v>0.0008586753433437571</v>
+        <v>4.728875988065924E-05</v>
       </c>
       <c r="P37">
-        <v>0.001110690545890958</v>
+        <v>7.020229389475982E-05</v>
       </c>
       <c r="Q37">
-        <v>0.003305943340444445</v>
+        <v>6.271685444444444E-06</v>
       </c>
       <c r="R37">
-        <v>0.029753490064</v>
+        <v>5.644516899999999E-05</v>
       </c>
       <c r="S37">
-        <v>7.373233452665191E-07</v>
+        <v>2.236226811050646E-09</v>
       </c>
       <c r="T37">
-        <v>1.233633488731555E-06</v>
+        <v>4.928362068086232E-09</v>
       </c>
     </row>
   </sheetData>
